--- a/biology/Zoologie/Adalia/Adalia.xlsx
+++ b/biology/Zoologie/Adalia/Adalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adalia est un genre de Coléoptères prédateurs de la famille des Coccinellidés, dont les larves et les adultes ont pour proies principalement des Pucerons aussi bien sur les arbres fruitiers, les grandes cultures, les cultures légumières et les cultures ornementales que sur les plantes sauvages.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (29 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (29 août 2014) :
 Adalia bipunctata (Linnaeus, 1758)
-Selon NCBI  (22 novembre 2021)[2] :
+Selon NCBI  (22 novembre 2021) :
 Adalia angulifera
 Adalia bipunctata
 Adalia conglomerata
@@ -523,7 +537,7 @@
 Adalia frigida
 Adalia lenticula
 Adalia tetraspilota
-Selon Paleobiology Database                   (29 août 2014)[3] :
+Selon Paleobiology Database                   (29 août 2014) :
 Adalia subversa</t>
         </is>
       </c>
